--- a/codes.xlsx
+++ b/codes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="103">
   <si>
     <r>
       <rPr>
@@ -66,9 +66,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">测试</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -119,289 +116,286 @@
     <t xml:space="preserve">003860</t>
   </si>
   <si>
+    <t xml:space="preserve">161725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">002959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">675113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">470058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">217022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">377240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">003095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">240011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">008888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">501009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">260101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">005224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">570008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">003634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">090018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">006733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">003547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001975</t>
+  </si>
+  <si>
     <t xml:space="preserve">100060</t>
   </si>
   <si>
-    <t xml:space="preserve">161725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">002959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">675113</t>
+    <t xml:space="preserve">006102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">009098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">519772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">005876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">005911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">005918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">004131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">011854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">007412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">007994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">008714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">570001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">502000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">005609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">004997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">519068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">007464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">009548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">002259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">519736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">011206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">206007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">004788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">008903</t>
   </si>
   <si>
     <t xml:space="preserve">005827</t>
   </si>
   <si>
-    <t xml:space="preserve">160222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">470058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">217022</t>
+    <t xml:space="preserve">001938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">005875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003</t>
   </si>
   <si>
     <t xml:space="preserve">270002</t>
   </si>
   <si>
-    <t xml:space="preserve">377240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">003095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">001857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160632</t>
+    <t xml:space="preserve">166001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">519066</t>
   </si>
   <si>
     <t xml:space="preserve">002851</t>
   </si>
   <si>
-    <t xml:space="preserve">000409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">240011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161122</t>
+    <t xml:space="preserve">003940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">690007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">002379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160211</t>
   </si>
   <si>
     <t xml:space="preserve">000988</t>
   </si>
   <si>
-    <t xml:space="preserve">008888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">001508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">501009</t>
+    <t xml:space="preserve">260108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">003984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">519150</t>
   </si>
   <si>
     <t xml:space="preserve">519732</t>
   </si>
   <si>
-    <t xml:space="preserve">001630</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">260101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161726</t>
+    <t xml:space="preserve">000209</t>
   </si>
   <si>
     <t xml:space="preserve">164906</t>
   </si>
   <si>
-    <t xml:space="preserve">005224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">001076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">570008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">000248</t>
+    <t xml:space="preserve">001951</t>
   </si>
   <si>
     <t xml:space="preserve">001179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">003634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">000083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">090018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">006733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">003547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">001975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">006102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">004997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">009098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">519772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">001500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">005876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">001938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">005911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">005918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">004131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">011854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">007412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">001716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">007994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">008714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">001606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">570001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">502000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">005609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">001645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">000309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">519068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">007464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">009548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">002259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">519736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">011206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">206007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">004788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">008903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">005875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">169104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">519066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">003940</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">690007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">162605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">001102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">002379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">001679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">260108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">003984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">519150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">000209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">001951</t>
   </si>
   <si>
     <t xml:space="preserve">161005</t>
@@ -558,25 +552,26 @@
   <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="6.75"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="6.75"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="25" min="20" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="25" min="20" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -592,9 +587,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="E1" s="1"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -619,20 +612,18 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="E2" s="5"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -657,20 +648,18 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="E3" s="5"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -695,20 +684,18 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E4" s="5"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -733,20 +720,18 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E5" s="5"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -771,20 +756,18 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>26</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E6" s="5"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -809,20 +792,18 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>31</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E7" s="5"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -847,20 +828,18 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>36</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E8" s="5"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -885,20 +864,18 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>41</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E9" s="5"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -923,20 +900,18 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>46</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E10" s="5"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -961,20 +936,18 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>50</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E11" s="5"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -999,20 +972,18 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>55</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E12" s="5"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1037,18 +1008,18 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="D13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>59</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E13" s="5"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1073,18 +1044,18 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="D14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>63</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E14" s="5"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1109,18 +1080,18 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="D15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>67</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E15" s="5"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1145,18 +1116,18 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="D16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>70</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E16" s="5"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1181,18 +1152,18 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="D17" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>74</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E17" s="5"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1217,18 +1188,18 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D18" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>78</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E18" s="5"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1253,18 +1224,18 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="D19" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>11</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="E19" s="5"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1289,18 +1260,18 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="D20" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>15</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E20" s="5"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1325,18 +1296,18 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="D21" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E21" s="5"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1361,18 +1332,18 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="D22" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>88</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E22" s="5"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1397,18 +1368,18 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="D23" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>92</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E23" s="5"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1433,18 +1404,18 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="D24" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>24</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E24" s="5"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1469,16 +1440,16 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="5" t="s">
-        <v>97</v>
-      </c>
+      <c r="D25" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="5"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1503,16 +1474,16 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="D26" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="5"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1538,13 +1509,13 @@
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
       <c r="B27" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="D27" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="5"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1570,13 +1541,13 @@
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
       <c r="B28" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="D28" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="5"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1602,13 +1573,13 @@
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
       <c r="B29" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="5" t="s">
-        <v>103</v>
-      </c>
+      <c r="D29" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="5"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -1635,10 +1606,10 @@
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="5" t="s">
-        <v>104</v>
-      </c>
+      <c r="D30" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="5"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
